--- a/TestData/UserData.xlsx
+++ b/TestData/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="8160" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="8160" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Users" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:W32"/>
+  <oleSize ref="A1:Q25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,9 +145,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Annual generation</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>test sparsh</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>33</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>34</v>
@@ -770,7 +770,7 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>32</v>
@@ -779,13 +779,13 @@
         <v>1000000</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>37</v>
@@ -806,7 +806,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,43 +816,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
       </c>
       <c r="N1" t="s">
         <v>15</v>
@@ -866,40 +866,40 @@
         <v>17</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/UserData.xlsx
+++ b/TestData/UserData.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="8160" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="8160" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="2" r:id="rId1"/>
-    <sheet name="Tools" sheetId="1" r:id="rId2"/>
-    <sheet name="Customers" sheetId="5" r:id="rId3"/>
-    <sheet name="DesignProposal" sheetId="7" r:id="rId4"/>
-    <sheet name="Task" sheetId="6" r:id="rId5"/>
-    <sheet name="credentials" sheetId="3" r:id="rId6"/>
-    <sheet name="Users" sheetId="4" r:id="rId7"/>
+    <sheet name="Customers" sheetId="5" r:id="rId2"/>
+    <sheet name="DesignProposal" sheetId="7" r:id="rId3"/>
+    <sheet name="Task" sheetId="6" r:id="rId4"/>
+    <sheet name="Users" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q25"/>
+  <oleSize ref="A1:P25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
-  <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>Zalenium</t>
-  </si>
-  <si>
-    <t>QTP</t>
-  </si>
-  <si>
-    <t>Katalon</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Java</t>
   </si>
@@ -50,27 +36,6 @@
   </si>
   <si>
     <t>Ruby</t>
-  </si>
-  <si>
-    <t>trina@email.com</t>
-  </si>
-  <si>
-    <t>pvitra@gmail.com</t>
-  </si>
-  <si>
-    <t>acbd@1234</t>
-  </si>
-  <si>
-    <t>mounika@yahoo.com</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>admin@email.com</t>
-  </si>
-  <si>
-    <t>admin@123</t>
   </si>
   <si>
     <t>Email</t>
@@ -309,16 +274,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -627,18 +588,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -648,40 +609,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -692,103 +622,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
+      <c r="P1" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="F2">
         <v>954326</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>1000000</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>37</v>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -801,11 +731,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -816,90 +746,90 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -924,19 +854,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -948,75 +878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="B5" r:id="rId6"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1031,19 +893,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
